--- a/CumulativeTestsByTypeByCounty/2021-12-27.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-12-27.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>77926</v>
+        <v>78254</v>
       </c>
       <c r="C2" s="4">
-        <v>2005</v>
+        <v>2024</v>
       </c>
       <c r="D2" s="4">
-        <v>35455</v>
+        <v>36306</v>
       </c>
       <c r="E2" s="4">
-        <v>115386</v>
+        <v>116584</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>5647</v>
+        <v>5657</v>
       </c>
       <c r="C3" s="4">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D3" s="4">
-        <v>5776</v>
+        <v>5808</v>
       </c>
       <c r="E3" s="4">
-        <v>11749</v>
+        <v>11793</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>79385</v>
+        <v>79576</v>
       </c>
       <c r="C4" s="4">
-        <v>4323</v>
+        <v>4352</v>
       </c>
       <c r="D4" s="4">
-        <v>74082</v>
+        <v>74677</v>
       </c>
       <c r="E4" s="4">
-        <v>157790</v>
+        <v>158605</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>15842</v>
+        <v>15920</v>
       </c>
       <c r="C5" s="4">
-        <v>2851</v>
+        <v>2862</v>
       </c>
       <c r="D5" s="4">
-        <v>13067</v>
+        <v>13146</v>
       </c>
       <c r="E5" s="4">
-        <v>31760</v>
+        <v>31928</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>4452</v>
+        <v>4471</v>
       </c>
       <c r="C6" s="4">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="D6" s="4">
-        <v>1627</v>
+        <v>1639</v>
       </c>
       <c r="E6" s="4">
-        <v>6879</v>
+        <v>6916</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>1048</v>
+        <v>1052</v>
       </c>
       <c r="C7" s="4">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D7" s="4">
-        <v>1496</v>
+        <v>1521</v>
       </c>
       <c r="E7" s="4">
-        <v>2875</v>
+        <v>2906</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>106170</v>
+        <v>106406</v>
       </c>
       <c r="C8" s="4">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D8" s="4">
-        <v>14244</v>
+        <v>14307</v>
       </c>
       <c r="E8" s="4">
-        <v>121853</v>
+        <v>122155</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>28897</v>
+        <v>29057</v>
       </c>
       <c r="C9" s="4">
-        <v>1843</v>
+        <v>1851</v>
       </c>
       <c r="D9" s="4">
-        <v>5396</v>
+        <v>5425</v>
       </c>
       <c r="E9" s="4">
-        <v>36136</v>
+        <v>36333</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>2634</v>
+        <v>2640</v>
       </c>
       <c r="C10" s="4">
         <v>94</v>
       </c>
       <c r="D10" s="4">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="E10" s="4">
-        <v>4183</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>14259</v>
+        <v>14337</v>
       </c>
       <c r="C11" s="4">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="D11" s="4">
-        <v>8302</v>
+        <v>8364</v>
       </c>
       <c r="E11" s="4">
-        <v>23353</v>
+        <v>23506</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>93726</v>
+        <v>94236</v>
       </c>
       <c r="C12" s="4">
-        <v>2350</v>
+        <v>2419</v>
       </c>
       <c r="D12" s="4">
-        <v>41809</v>
+        <v>42074</v>
       </c>
       <c r="E12" s="4">
-        <v>137885</v>
+        <v>138729</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,16 +1258,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>2115</v>
+        <v>2121</v>
       </c>
       <c r="C13" s="4">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="D13" s="4">
-        <v>3739</v>
+        <v>3760</v>
       </c>
       <c r="E13" s="4">
-        <v>6373</v>
+        <v>6407</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>52752</v>
+        <v>52870</v>
       </c>
       <c r="C14" s="4">
-        <v>8074</v>
+        <v>8101</v>
       </c>
       <c r="D14" s="4">
-        <v>22598</v>
+        <v>22811</v>
       </c>
       <c r="E14" s="4">
-        <v>83424</v>
+        <v>83782</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>405350</v>
+        <v>407421</v>
       </c>
       <c r="C15" s="4">
-        <v>15580</v>
+        <v>15655</v>
       </c>
       <c r="D15" s="4">
-        <v>87596</v>
+        <v>88926</v>
       </c>
       <c r="E15" s="4">
-        <v>508526</v>
+        <v>512002</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>4170159</v>
+        <v>4190040</v>
       </c>
       <c r="C16" s="4">
-        <v>73901</v>
+        <v>74564</v>
       </c>
       <c r="D16" s="4">
-        <v>598647</v>
+        <v>604717</v>
       </c>
       <c r="E16" s="4">
-        <v>4842707</v>
+        <v>4869321</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>9265</v>
+        <v>9310</v>
       </c>
       <c r="C17" s="4">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="D17" s="4">
-        <v>3286</v>
+        <v>3468</v>
       </c>
       <c r="E17" s="4">
-        <v>13041</v>
+        <v>13280</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1343,7 +1343,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C18" s="4">
         <v>12</v>
@@ -1352,7 +1352,7 @@
         <v>113</v>
       </c>
       <c r="E18" s="4">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>12198</v>
+        <v>12235</v>
       </c>
       <c r="C19" s="4">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="D19" s="4">
-        <v>9017</v>
+        <v>9047</v>
       </c>
       <c r="E19" s="4">
-        <v>21793</v>
+        <v>21864</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>88379</v>
+        <v>88572</v>
       </c>
       <c r="C20" s="4">
-        <v>10569</v>
+        <v>10577</v>
       </c>
       <c r="D20" s="4">
-        <v>35049</v>
+        <v>35275</v>
       </c>
       <c r="E20" s="4">
-        <v>133997</v>
+        <v>134424</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>563325</v>
+        <v>569628</v>
       </c>
       <c r="C21" s="4">
-        <v>25663</v>
+        <v>25797</v>
       </c>
       <c r="D21" s="4">
-        <v>112808</v>
+        <v>114263</v>
       </c>
       <c r="E21" s="4">
-        <v>701796</v>
+        <v>709688</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>434119</v>
+        <v>437281</v>
       </c>
       <c r="C22" s="4">
-        <v>12468</v>
+        <v>12650</v>
       </c>
       <c r="D22" s="4">
-        <v>49811</v>
+        <v>50239</v>
       </c>
       <c r="E22" s="4">
-        <v>496398</v>
+        <v>500170</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>9329</v>
+        <v>9337</v>
       </c>
       <c r="C23" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D23" s="4">
-        <v>3495</v>
+        <v>3501</v>
       </c>
       <c r="E23" s="4">
-        <v>12999</v>
+        <v>13014</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="C24" s="4">
         <v>142</v>
       </c>
       <c r="D24" s="4">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E24" s="4">
-        <v>1601</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>25375</v>
+        <v>25382</v>
       </c>
       <c r="C25" s="4">
-        <v>1862</v>
+        <v>1866</v>
       </c>
       <c r="D25" s="4">
-        <v>6634</v>
+        <v>6653</v>
       </c>
       <c r="E25" s="4">
-        <v>33871</v>
+        <v>33901</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>26001</v>
+        <v>26113</v>
       </c>
       <c r="C26" s="4">
-        <v>1250</v>
+        <v>1255</v>
       </c>
       <c r="D26" s="4">
-        <v>42255</v>
+        <v>42495</v>
       </c>
       <c r="E26" s="4">
-        <v>69506</v>
+        <v>69863</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>25448</v>
+        <v>25586</v>
       </c>
       <c r="C27" s="4">
-        <v>817</v>
+        <v>829</v>
       </c>
       <c r="D27" s="4">
-        <v>6824</v>
+        <v>6849</v>
       </c>
       <c r="E27" s="4">
-        <v>33089</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>58154</v>
+        <v>58381</v>
       </c>
       <c r="C28" s="4">
-        <v>2279</v>
+        <v>2328</v>
       </c>
       <c r="D28" s="4">
-        <v>13725</v>
+        <v>13869</v>
       </c>
       <c r="E28" s="4">
-        <v>74158</v>
+        <v>74578</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>58565</v>
+        <v>59059</v>
       </c>
       <c r="C29" s="4">
-        <v>2164</v>
+        <v>2182</v>
       </c>
       <c r="D29" s="4">
-        <v>17381</v>
+        <v>17445</v>
       </c>
       <c r="E29" s="4">
-        <v>78110</v>
+        <v>78686</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>20332</v>
+        <v>20429</v>
       </c>
       <c r="C30" s="4">
-        <v>2165</v>
+        <v>2194</v>
       </c>
       <c r="D30" s="4">
-        <v>13915</v>
+        <v>13994</v>
       </c>
       <c r="E30" s="4">
-        <v>36412</v>
+        <v>36617</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>7067</v>
+        <v>7090</v>
       </c>
       <c r="C31" s="4">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D31" s="4">
-        <v>11270</v>
+        <v>11309</v>
       </c>
       <c r="E31" s="4">
-        <v>18672</v>
+        <v>18736</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>426996</v>
+        <v>429334</v>
       </c>
       <c r="C32" s="4">
-        <v>11092</v>
+        <v>11147</v>
       </c>
       <c r="D32" s="4">
-        <v>146531</v>
+        <v>147690</v>
       </c>
       <c r="E32" s="4">
-        <v>584619</v>
+        <v>588171</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>9398</v>
+        <v>9446</v>
       </c>
       <c r="C33" s="4">
         <v>543</v>
       </c>
       <c r="D33" s="4">
-        <v>3944</v>
+        <v>3963</v>
       </c>
       <c r="E33" s="4">
-        <v>13885</v>
+        <v>13952</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>2895</v>
+        <v>2935</v>
       </c>
       <c r="C34" s="4">
         <v>1116</v>
       </c>
       <c r="D34" s="4">
-        <v>1421</v>
+        <v>1522</v>
       </c>
       <c r="E34" s="4">
-        <v>5432</v>
+        <v>5573</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>18850</v>
+        <v>18919</v>
       </c>
       <c r="C35" s="4">
         <v>3350</v>
       </c>
       <c r="D35" s="4">
-        <v>11969</v>
+        <v>11997</v>
       </c>
       <c r="E35" s="4">
-        <v>34169</v>
+        <v>34266</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>7549</v>
+        <v>7667</v>
       </c>
       <c r="C36" s="4">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D36" s="4">
-        <v>3488</v>
+        <v>3537</v>
       </c>
       <c r="E36" s="4">
-        <v>11459</v>
+        <v>11629</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>14090</v>
+        <v>14146</v>
       </c>
       <c r="C37" s="4">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="D37" s="4">
-        <v>3419</v>
+        <v>3445</v>
       </c>
       <c r="E37" s="4">
-        <v>18407</v>
+        <v>18492</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>37383</v>
+        <v>37481</v>
       </c>
       <c r="C38" s="4">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="D38" s="4">
-        <v>28752</v>
+        <v>29101</v>
       </c>
       <c r="E38" s="4">
-        <v>67365</v>
+        <v>67832</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,16 +1700,16 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>6781</v>
+        <v>6833</v>
       </c>
       <c r="C39" s="4">
         <v>450</v>
       </c>
       <c r="D39" s="4">
-        <v>6423</v>
+        <v>6448</v>
       </c>
       <c r="E39" s="4">
-        <v>13654</v>
+        <v>13731</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>6587</v>
+        <v>6616</v>
       </c>
       <c r="C40" s="4">
         <v>678</v>
       </c>
       <c r="D40" s="4">
-        <v>5129</v>
+        <v>5149</v>
       </c>
       <c r="E40" s="4">
-        <v>12394</v>
+        <v>12443</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,16 +1734,16 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>1650</v>
+        <v>1657</v>
       </c>
       <c r="C41" s="4">
         <v>29</v>
       </c>
       <c r="D41" s="4">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E41" s="4">
-        <v>2116</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>2931</v>
+        <v>2938</v>
       </c>
       <c r="C42" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="4">
-        <v>3340</v>
+        <v>3356</v>
       </c>
       <c r="E42" s="4">
-        <v>6329</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>4439</v>
+        <v>4476</v>
       </c>
       <c r="C43" s="4">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D43" s="4">
-        <v>5027</v>
+        <v>5044</v>
       </c>
       <c r="E43" s="4">
-        <v>9634</v>
+        <v>9693</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>1554036</v>
+        <v>1565598</v>
       </c>
       <c r="C44" s="4">
-        <v>109380</v>
+        <v>110014</v>
       </c>
       <c r="D44" s="4">
-        <v>290047</v>
+        <v>295249</v>
       </c>
       <c r="E44" s="4">
-        <v>1953463</v>
+        <v>1970861</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,16 +1802,16 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>1878</v>
+        <v>1892</v>
       </c>
       <c r="C45" s="4">
         <v>121</v>
       </c>
       <c r="D45" s="4">
-        <v>2790</v>
+        <v>2813</v>
       </c>
       <c r="E45" s="4">
-        <v>4789</v>
+        <v>4826</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>18600</v>
+        <v>18654</v>
       </c>
       <c r="C46" s="4">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D46" s="4">
-        <v>9489</v>
+        <v>9522</v>
       </c>
       <c r="E46" s="4">
-        <v>29293</v>
+        <v>29381</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>185531</v>
+        <v>186819</v>
       </c>
       <c r="C47" s="4">
-        <v>12171</v>
+        <v>12303</v>
       </c>
       <c r="D47" s="4">
-        <v>51120</v>
+        <v>51588</v>
       </c>
       <c r="E47" s="4">
-        <v>248822</v>
+        <v>250710</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>10878</v>
+        <v>10930</v>
       </c>
       <c r="C48" s="4">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D48" s="4">
-        <v>5844</v>
+        <v>5887</v>
       </c>
       <c r="E48" s="4">
-        <v>17094</v>
+        <v>17191</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>2217</v>
+        <v>2248</v>
       </c>
       <c r="C49" s="4">
         <v>35</v>
       </c>
       <c r="D49" s="4">
-        <v>4044</v>
+        <v>4069</v>
       </c>
       <c r="E49" s="4">
-        <v>6296</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>32164</v>
+        <v>32270</v>
       </c>
       <c r="C50" s="4">
-        <v>2212</v>
+        <v>2233</v>
       </c>
       <c r="D50" s="4">
-        <v>12117</v>
+        <v>12200</v>
       </c>
       <c r="E50" s="4">
-        <v>46493</v>
+        <v>46703</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>134258</v>
+        <v>135043</v>
       </c>
       <c r="C51" s="4">
         <v>2453</v>
       </c>
       <c r="D51" s="4">
-        <v>25488</v>
+        <v>25691</v>
       </c>
       <c r="E51" s="4">
-        <v>162199</v>
+        <v>163187</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,16 +1921,16 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>1230</v>
+        <v>1246</v>
       </c>
       <c r="C52" s="4">
         <v>70</v>
       </c>
       <c r="D52" s="4">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="E52" s="4">
-        <v>2344</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>4938</v>
+        <v>4944</v>
       </c>
       <c r="C53" s="4">
         <v>96</v>
       </c>
       <c r="D53" s="4">
-        <v>3935</v>
+        <v>3943</v>
       </c>
       <c r="E53" s="4">
-        <v>8969</v>
+        <v>8983</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>1179</v>
+        <v>1182</v>
       </c>
       <c r="C54" s="4">
         <v>27</v>
       </c>
       <c r="D54" s="4">
-        <v>4394</v>
+        <v>4424</v>
       </c>
       <c r="E54" s="4">
-        <v>5600</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>3643</v>
+        <v>3664</v>
       </c>
       <c r="C55" s="4">
         <v>75</v>
       </c>
       <c r="D55" s="4">
-        <v>3544</v>
+        <v>3597</v>
       </c>
       <c r="E55" s="4">
-        <v>7262</v>
+        <v>7336</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>2805</v>
+        <v>2825</v>
       </c>
       <c r="C56" s="4">
         <v>41</v>
       </c>
       <c r="D56" s="4">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E56" s="4">
-        <v>3249</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,16 +2006,16 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>3705</v>
+        <v>3765</v>
       </c>
       <c r="C57" s="4">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="D57" s="4">
-        <v>3551</v>
+        <v>3675</v>
       </c>
       <c r="E57" s="4">
-        <v>7823</v>
+        <v>8011</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>3782744</v>
+        <v>3809628</v>
       </c>
       <c r="C58" s="4">
-        <v>164721</v>
+        <v>165482</v>
       </c>
       <c r="D58" s="4">
-        <v>582644</v>
+        <v>590512</v>
       </c>
       <c r="E58" s="4">
-        <v>4530109</v>
+        <v>4565622</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>11792</v>
+        <v>11809</v>
       </c>
       <c r="C59" s="4">
         <v>583</v>
       </c>
       <c r="D59" s="4">
-        <v>5213</v>
+        <v>5251</v>
       </c>
       <c r="E59" s="4">
-        <v>17588</v>
+        <v>17643</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>15088</v>
+        <v>15125</v>
       </c>
       <c r="C60" s="4">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="D60" s="4">
-        <v>7140</v>
+        <v>7185</v>
       </c>
       <c r="E60" s="4">
-        <v>22813</v>
+        <v>22911</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>7662</v>
+        <v>7705</v>
       </c>
       <c r="C61" s="4">
-        <v>1204</v>
+        <v>1208</v>
       </c>
       <c r="D61" s="4">
-        <v>5610</v>
+        <v>5830</v>
       </c>
       <c r="E61" s="4">
-        <v>14476</v>
+        <v>14743</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>3027</v>
+        <v>3040</v>
       </c>
       <c r="C62" s="4">
         <v>261</v>
       </c>
       <c r="D62" s="4">
-        <v>2829</v>
+        <v>2838</v>
       </c>
       <c r="E62" s="4">
-        <v>6117</v>
+        <v>6139</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>930249</v>
+        <v>936602</v>
       </c>
       <c r="C63" s="4">
-        <v>80557</v>
+        <v>80873</v>
       </c>
       <c r="D63" s="4">
-        <v>244226</v>
+        <v>246816</v>
       </c>
       <c r="E63" s="4">
-        <v>1255032</v>
+        <v>1264291</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2125,16 +2125,16 @@
         <v>67</v>
       </c>
       <c r="B64" s="4">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="C64" s="4">
         <v>22</v>
       </c>
       <c r="D64" s="4">
-        <v>980</v>
+        <v>996</v>
       </c>
       <c r="E64" s="4">
-        <v>1841</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="65" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>27924</v>
+        <v>28114</v>
       </c>
       <c r="C65" s="4">
         <v>131</v>
       </c>
       <c r="D65" s="4">
-        <v>41773</v>
+        <v>42105</v>
       </c>
       <c r="E65" s="4">
-        <v>69828</v>
+        <v>70350</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>2011</v>
+        <v>2027</v>
       </c>
       <c r="C66" s="4">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D66" s="4">
-        <v>2227</v>
+        <v>2261</v>
       </c>
       <c r="E66" s="4">
-        <v>4735</v>
+        <v>4787</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>23826</v>
+        <v>23861</v>
       </c>
       <c r="C67" s="4">
-        <v>3389</v>
+        <v>3391</v>
       </c>
       <c r="D67" s="4">
-        <v>11777</v>
+        <v>11812</v>
       </c>
       <c r="E67" s="4">
-        <v>38992</v>
+        <v>39064</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>7493</v>
+        <v>7519</v>
       </c>
       <c r="C68" s="4">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="D68" s="4">
-        <v>8811</v>
+        <v>8870</v>
       </c>
       <c r="E68" s="4">
-        <v>16817</v>
+        <v>16906</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>91335</v>
+        <v>92030</v>
       </c>
       <c r="C69" s="4">
-        <v>6356</v>
+        <v>6377</v>
       </c>
       <c r="D69" s="4">
-        <v>58966</v>
+        <v>59964</v>
       </c>
       <c r="E69" s="4">
-        <v>156657</v>
+        <v>158371</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>1428</v>
+        <v>1432</v>
       </c>
       <c r="C70" s="4">
         <v>42</v>
       </c>
       <c r="D70" s="4">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E70" s="4">
-        <v>2348</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>1243209</v>
+        <v>1247924</v>
       </c>
       <c r="C71" s="4">
-        <v>22863</v>
+        <v>22916</v>
       </c>
       <c r="D71" s="4">
-        <v>602966</v>
+        <v>606756</v>
       </c>
       <c r="E71" s="4">
-        <v>1869038</v>
+        <v>1877596</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>249889</v>
+        <v>251110</v>
       </c>
       <c r="C72" s="4">
-        <v>9375</v>
+        <v>9422</v>
       </c>
       <c r="D72" s="4">
-        <v>53273</v>
+        <v>53801</v>
       </c>
       <c r="E72" s="4">
-        <v>312537</v>
+        <v>314333</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>32392</v>
+        <v>32570</v>
       </c>
       <c r="C73" s="4">
-        <v>1949</v>
+        <v>1994</v>
       </c>
       <c r="D73" s="4">
-        <v>14166</v>
+        <v>14212</v>
       </c>
       <c r="E73" s="4">
-        <v>48507</v>
+        <v>48776</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>18143</v>
+        <v>18175</v>
       </c>
       <c r="C74" s="4">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="D74" s="4">
-        <v>9049</v>
+        <v>9148</v>
       </c>
       <c r="E74" s="4">
-        <v>27670</v>
+        <v>27808</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>43878</v>
+        <v>43958</v>
       </c>
       <c r="C75" s="4">
-        <v>1109</v>
+        <v>1112</v>
       </c>
       <c r="D75" s="4">
-        <v>11433</v>
+        <v>11547</v>
       </c>
       <c r="E75" s="4">
-        <v>56420</v>
+        <v>56617</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>22650</v>
+        <v>22791</v>
       </c>
       <c r="C76" s="4">
-        <v>975</v>
+        <v>1009</v>
       </c>
       <c r="D76" s="4">
-        <v>6925</v>
+        <v>7075</v>
       </c>
       <c r="E76" s="4">
-        <v>30550</v>
+        <v>30875</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C77" s="4">
         <v>42</v>
       </c>
       <c r="D77" s="4">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="E77" s="4">
-        <v>2505</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>4706</v>
+        <v>4754</v>
       </c>
       <c r="C78" s="4">
         <v>175</v>
       </c>
       <c r="D78" s="4">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="E78" s="4">
-        <v>5709</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2380,16 +2380,16 @@
         <v>82</v>
       </c>
       <c r="B79" s="4">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C79" s="4">
         <v>139</v>
       </c>
       <c r="D79" s="4">
-        <v>1580</v>
+        <v>1592</v>
       </c>
       <c r="E79" s="4">
-        <v>2421</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>1142321</v>
+        <v>1155450</v>
       </c>
       <c r="C80" s="4">
-        <v>50080</v>
+        <v>50353</v>
       </c>
       <c r="D80" s="4">
-        <v>160870</v>
+        <v>163038</v>
       </c>
       <c r="E80" s="4">
-        <v>1353271</v>
+        <v>1368841</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,16 +2414,16 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>7014</v>
+        <v>7045</v>
       </c>
       <c r="C81" s="4">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D81" s="4">
-        <v>1829</v>
+        <v>1846</v>
       </c>
       <c r="E81" s="4">
-        <v>9432</v>
+        <v>9483</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>23250</v>
+        <v>23354</v>
       </c>
       <c r="C82" s="4">
         <v>819</v>
       </c>
       <c r="D82" s="4">
-        <v>18878</v>
+        <v>19121</v>
       </c>
       <c r="E82" s="4">
-        <v>42947</v>
+        <v>43294</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>32523</v>
+        <v>32782</v>
       </c>
       <c r="C83" s="4">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="D83" s="4">
-        <v>9418</v>
+        <v>9755</v>
       </c>
       <c r="E83" s="4">
-        <v>42517</v>
+        <v>43115</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>5204</v>
+        <v>5227</v>
       </c>
       <c r="C84" s="4">
         <v>304</v>
       </c>
       <c r="D84" s="4">
-        <v>2087</v>
+        <v>2098</v>
       </c>
       <c r="E84" s="4">
-        <v>7595</v>
+        <v>7629</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>604126</v>
+        <v>610257</v>
       </c>
       <c r="C85" s="4">
-        <v>25904</v>
+        <v>25998</v>
       </c>
       <c r="D85" s="4">
-        <v>92556</v>
+        <v>93664</v>
       </c>
       <c r="E85" s="4">
-        <v>722586</v>
+        <v>729919</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>3953</v>
+        <v>3992</v>
       </c>
       <c r="C86" s="4">
         <v>72</v>
       </c>
       <c r="D86" s="4">
-        <v>1815</v>
+        <v>1820</v>
       </c>
       <c r="E86" s="4">
-        <v>5840</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>21636</v>
+        <v>21698</v>
       </c>
       <c r="C87" s="4">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="D87" s="4">
-        <v>10584</v>
+        <v>10700</v>
       </c>
       <c r="E87" s="4">
-        <v>33207</v>
+        <v>33393</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,16 +2533,16 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C88" s="4">
         <v>53</v>
       </c>
       <c r="D88" s="4">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E88" s="4">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>4633</v>
+        <v>4642</v>
       </c>
       <c r="C89" s="4">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D89" s="4">
-        <v>3750</v>
+        <v>3768</v>
       </c>
       <c r="E89" s="4">
-        <v>8719</v>
+        <v>8752</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>17142</v>
+        <v>17189</v>
       </c>
       <c r="C90" s="4">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D90" s="4">
-        <v>10310</v>
+        <v>10365</v>
       </c>
       <c r="E90" s="4">
-        <v>27964</v>
+        <v>28072</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>13027</v>
+        <v>13181</v>
       </c>
       <c r="C91" s="4">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="D91" s="4">
-        <v>10457</v>
+        <v>10775</v>
       </c>
       <c r="E91" s="4">
-        <v>24759</v>
+        <v>25240</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>164581</v>
+        <v>165121</v>
       </c>
       <c r="C92" s="4">
-        <v>6025</v>
+        <v>6073</v>
       </c>
       <c r="D92" s="4">
-        <v>44396</v>
+        <v>45524</v>
       </c>
       <c r="E92" s="4">
-        <v>215002</v>
+        <v>216718</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>79061</v>
+        <v>79298</v>
       </c>
       <c r="C93" s="4">
-        <v>12095</v>
+        <v>12142</v>
       </c>
       <c r="D93" s="4">
-        <v>43182</v>
+        <v>43566</v>
       </c>
       <c r="E93" s="4">
-        <v>134338</v>
+        <v>135006</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>56224</v>
+        <v>56404</v>
       </c>
       <c r="C94" s="4">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="D94" s="4">
-        <v>13336</v>
+        <v>13441</v>
       </c>
       <c r="E94" s="4">
-        <v>71011</v>
+        <v>71310</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>147335</v>
+        <v>148156</v>
       </c>
       <c r="C95" s="4">
-        <v>5934</v>
+        <v>5996</v>
       </c>
       <c r="D95" s="4">
-        <v>45505</v>
+        <v>45865</v>
       </c>
       <c r="E95" s="4">
-        <v>198774</v>
+        <v>200017</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>30516</v>
+        <v>30824</v>
       </c>
       <c r="C96" s="4">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="D96" s="4">
-        <v>7669</v>
+        <v>7886</v>
       </c>
       <c r="E96" s="4">
-        <v>38711</v>
+        <v>39238</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>2073</v>
+        <v>2099</v>
       </c>
       <c r="C97" s="4">
         <v>79</v>
       </c>
       <c r="D97" s="4">
-        <v>2980</v>
+        <v>3000</v>
       </c>
       <c r="E97" s="4">
-        <v>5132</v>
+        <v>5178</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>10562</v>
+        <v>10673</v>
       </c>
       <c r="C98" s="4">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="D98" s="4">
-        <v>3894</v>
+        <v>3908</v>
       </c>
       <c r="E98" s="4">
-        <v>14911</v>
+        <v>15040</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1944</v>
+        <v>1951</v>
       </c>
       <c r="C99" s="4">
         <v>819</v>
       </c>
       <c r="D99" s="4">
-        <v>3360</v>
+        <v>3383</v>
       </c>
       <c r="E99" s="4">
-        <v>6123</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>2429</v>
+        <v>2442</v>
       </c>
       <c r="C100" s="4">
         <v>316</v>
       </c>
       <c r="D100" s="4">
-        <v>3151</v>
+        <v>3207</v>
       </c>
       <c r="E100" s="4">
-        <v>5896</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>41122</v>
+        <v>41270</v>
       </c>
       <c r="C101" s="4">
-        <v>4390</v>
+        <v>4410</v>
       </c>
       <c r="D101" s="4">
-        <v>23678</v>
+        <v>23838</v>
       </c>
       <c r="E101" s="4">
-        <v>69190</v>
+        <v>69518</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>6978885</v>
+        <v>7061098</v>
       </c>
       <c r="C102" s="4">
-        <v>273596</v>
+        <v>274581</v>
       </c>
       <c r="D102" s="4">
-        <v>1031345</v>
+        <v>1044605</v>
       </c>
       <c r="E102" s="4">
-        <v>8283826</v>
+        <v>8380284</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>83309</v>
+        <v>83521</v>
       </c>
       <c r="C103" s="4">
-        <v>9166</v>
+        <v>9216</v>
       </c>
       <c r="D103" s="4">
-        <v>29790</v>
+        <v>30007</v>
       </c>
       <c r="E103" s="4">
-        <v>122265</v>
+        <v>122744</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,16 +2805,16 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C104" s="4">
         <v>73</v>
       </c>
       <c r="D104" s="4">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="E104" s="4">
-        <v>534</v>
+        <v>545</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>1882</v>
+        <v>1888</v>
       </c>
       <c r="C105" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D105" s="4">
-        <v>3187</v>
+        <v>3226</v>
       </c>
       <c r="E105" s="4">
-        <v>5112</v>
+        <v>5158</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>431716</v>
+        <v>435546</v>
       </c>
       <c r="C106" s="4">
-        <v>16170</v>
+        <v>16447</v>
       </c>
       <c r="D106" s="4">
-        <v>57050</v>
+        <v>57540</v>
       </c>
       <c r="E106" s="4">
-        <v>504936</v>
+        <v>509533</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>1197</v>
+        <v>1210</v>
       </c>
       <c r="C107" s="4">
         <v>500</v>
       </c>
       <c r="D107" s="4">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="E107" s="4">
-        <v>2208</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>46704</v>
+        <v>47007</v>
       </c>
       <c r="C108" s="4">
-        <v>3176</v>
+        <v>3198</v>
       </c>
       <c r="D108" s="4">
-        <v>27832</v>
+        <v>28037</v>
       </c>
       <c r="E108" s="4">
-        <v>77712</v>
+        <v>78242</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>782527</v>
+        <v>786475</v>
       </c>
       <c r="C109" s="4">
-        <v>21051</v>
+        <v>21161</v>
       </c>
       <c r="D109" s="4">
-        <v>387565</v>
+        <v>393794</v>
       </c>
       <c r="E109" s="4">
-        <v>1191143</v>
+        <v>1201430</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>41242</v>
+        <v>41353</v>
       </c>
       <c r="C110" s="4">
-        <v>1248</v>
+        <v>1258</v>
       </c>
       <c r="D110" s="4">
-        <v>17348</v>
+        <v>17618</v>
       </c>
       <c r="E110" s="4">
-        <v>59838</v>
+        <v>60229</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>16633</v>
+        <v>16798</v>
       </c>
       <c r="C111" s="4">
         <v>257</v>
       </c>
       <c r="D111" s="4">
-        <v>6159</v>
+        <v>6183</v>
       </c>
       <c r="E111" s="4">
-        <v>23049</v>
+        <v>23238</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>53557</v>
+        <v>53967</v>
       </c>
       <c r="C112" s="4">
-        <v>3213</v>
+        <v>3225</v>
       </c>
       <c r="D112" s="4">
-        <v>42528</v>
+        <v>42780</v>
       </c>
       <c r="E112" s="4">
-        <v>99298</v>
+        <v>99972</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>26895</v>
+        <v>26973</v>
       </c>
       <c r="C113" s="4">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="D113" s="4">
-        <v>13689</v>
+        <v>13838</v>
       </c>
       <c r="E113" s="4">
-        <v>42708</v>
+        <v>42937</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>20868</v>
+        <v>20922</v>
       </c>
       <c r="C114" s="4">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="D114" s="4">
-        <v>10277</v>
+        <v>10361</v>
       </c>
       <c r="E114" s="4">
-        <v>31829</v>
+        <v>31969</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>22526</v>
+        <v>22600</v>
       </c>
       <c r="C115" s="4">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D115" s="4">
-        <v>16357</v>
+        <v>16572</v>
       </c>
       <c r="E115" s="4">
-        <v>39808</v>
+        <v>40099</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>3324</v>
+        <v>3334</v>
       </c>
       <c r="C116" s="4">
         <v>50</v>
       </c>
       <c r="D116" s="4">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="E116" s="4">
-        <v>5114</v>
+        <v>5127</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>126589</v>
+        <v>127106</v>
       </c>
       <c r="C117" s="4">
-        <v>5086</v>
+        <v>5105</v>
       </c>
       <c r="D117" s="4">
-        <v>44037</v>
+        <v>44408</v>
       </c>
       <c r="E117" s="4">
-        <v>175712</v>
+        <v>176619</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>12978</v>
+        <v>13051</v>
       </c>
       <c r="C118" s="4">
-        <v>1797</v>
+        <v>1802</v>
       </c>
       <c r="D118" s="4">
-        <v>9949</v>
+        <v>10176</v>
       </c>
       <c r="E118" s="4">
-        <v>24724</v>
+        <v>25029</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3063,13 +3063,13 @@
         <v>522</v>
       </c>
       <c r="C119" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D119" s="4">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="E119" s="4">
-        <v>1307</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>4813</v>
+        <v>4826</v>
       </c>
       <c r="C120" s="4">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D120" s="4">
-        <v>1838</v>
+        <v>1851</v>
       </c>
       <c r="E120" s="4">
-        <v>6927</v>
+        <v>6955</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>10746</v>
+        <v>10771</v>
       </c>
       <c r="C121" s="4">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="D121" s="4">
-        <v>5445</v>
+        <v>5470</v>
       </c>
       <c r="E121" s="4">
-        <v>16712</v>
+        <v>16770</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>27083</v>
+        <v>27188</v>
       </c>
       <c r="C122" s="4">
-        <v>3056</v>
+        <v>3074</v>
       </c>
       <c r="D122" s="4">
-        <v>14694</v>
+        <v>14885</v>
       </c>
       <c r="E122" s="4">
-        <v>44833</v>
+        <v>45147</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3128,16 +3128,16 @@
         <v>126</v>
       </c>
       <c r="B123" s="4">
-        <v>1972</v>
+        <v>1980</v>
       </c>
       <c r="C123" s="4">
         <v>56</v>
       </c>
       <c r="D123" s="4">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E123" s="4">
-        <v>2393</v>
+        <v>2406</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>231784</v>
+        <v>232835</v>
       </c>
       <c r="C124" s="4">
-        <v>16129</v>
+        <v>16215</v>
       </c>
       <c r="D124" s="4">
-        <v>97837</v>
+        <v>98869</v>
       </c>
       <c r="E124" s="4">
-        <v>345750</v>
+        <v>347919</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>15009</v>
+        <v>15011</v>
       </c>
       <c r="C125" s="4">
         <v>766</v>
       </c>
       <c r="D125" s="4">
-        <v>14706</v>
+        <v>14840</v>
       </c>
       <c r="E125" s="4">
-        <v>30481</v>
+        <v>30617</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>77024</v>
+        <v>77187</v>
       </c>
       <c r="C126" s="4">
-        <v>10942</v>
+        <v>10958</v>
       </c>
       <c r="D126" s="4">
-        <v>33970</v>
+        <v>34099</v>
       </c>
       <c r="E126" s="4">
-        <v>121936</v>
+        <v>122244</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>189396</v>
+        <v>190650</v>
       </c>
       <c r="C127" s="4">
-        <v>9019</v>
+        <v>9084</v>
       </c>
       <c r="D127" s="4">
-        <v>46171</v>
+        <v>46854</v>
       </c>
       <c r="E127" s="4">
-        <v>244586</v>
+        <v>246588</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>10831</v>
+        <v>10882</v>
       </c>
       <c r="C128" s="4">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D128" s="4">
-        <v>8655</v>
+        <v>8717</v>
       </c>
       <c r="E128" s="4">
-        <v>19728</v>
+        <v>19843</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>21720</v>
+        <v>21753</v>
       </c>
       <c r="C129" s="4">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D129" s="4">
-        <v>12559</v>
+        <v>12637</v>
       </c>
       <c r="E129" s="4">
-        <v>34852</v>
+        <v>34965</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>168957</v>
+        <v>169902</v>
       </c>
       <c r="C130" s="4">
-        <v>7085</v>
+        <v>7120</v>
       </c>
       <c r="D130" s="4">
-        <v>50946</v>
+        <v>51602</v>
       </c>
       <c r="E130" s="4">
-        <v>226988</v>
+        <v>228624</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>42117</v>
+        <v>42348</v>
       </c>
       <c r="C131" s="4">
-        <v>2724</v>
+        <v>2792</v>
       </c>
       <c r="D131" s="4">
-        <v>20721</v>
+        <v>20971</v>
       </c>
       <c r="E131" s="4">
-        <v>65562</v>
+        <v>66111</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,16 +3281,16 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C132" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D132" s="4">
         <v>109</v>
       </c>
       <c r="E132" s="4">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,16 +3298,16 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
       <c r="D133" s="4">
-        <v>1627</v>
+        <v>1636</v>
       </c>
       <c r="E133" s="4">
-        <v>1939</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>45690</v>
+        <v>45838</v>
       </c>
       <c r="C134" s="4">
-        <v>1886</v>
+        <v>1957</v>
       </c>
       <c r="D134" s="4">
-        <v>42750</v>
+        <v>43085</v>
       </c>
       <c r="E134" s="4">
-        <v>90326</v>
+        <v>90880</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,16 +3332,16 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="C135" s="4">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D135" s="4">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="E135" s="4">
-        <v>3586</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3349,7 +3349,7 @@
         <v>139</v>
       </c>
       <c r="B136" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C136" s="4">
         <v>7</v>
@@ -3358,7 +3358,7 @@
         <v>47</v>
       </c>
       <c r="E136" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="137" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>3223</v>
+        <v>3229</v>
       </c>
       <c r="C137" s="4">
         <v>58</v>
       </c>
       <c r="D137" s="4">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="E137" s="4">
-        <v>4068</v>
+        <v>4079</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>38031</v>
+        <v>38109</v>
       </c>
       <c r="C138" s="4">
-        <v>5464</v>
+        <v>5467</v>
       </c>
       <c r="D138" s="4">
-        <v>16966</v>
+        <v>17133</v>
       </c>
       <c r="E138" s="4">
-        <v>60461</v>
+        <v>60709</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,16 +3400,16 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>1137</v>
+        <v>1150</v>
       </c>
       <c r="C139" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D139" s="4">
-        <v>5701</v>
+        <v>5815</v>
       </c>
       <c r="E139" s="4">
-        <v>6896</v>
+        <v>7024</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>11676</v>
+        <v>11706</v>
       </c>
       <c r="C140" s="4">
         <v>325</v>
       </c>
       <c r="D140" s="4">
-        <v>4208</v>
+        <v>4224</v>
       </c>
       <c r="E140" s="4">
-        <v>16209</v>
+        <v>16255</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>30472</v>
+        <v>30586</v>
       </c>
       <c r="C141" s="4">
-        <v>2945</v>
+        <v>2951</v>
       </c>
       <c r="D141" s="4">
-        <v>18730</v>
+        <v>18899</v>
       </c>
       <c r="E141" s="4">
-        <v>52147</v>
+        <v>52436</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>8791</v>
+        <v>8823</v>
       </c>
       <c r="C142" s="4">
         <v>177</v>
       </c>
       <c r="D142" s="4">
-        <v>9088</v>
+        <v>9150</v>
       </c>
       <c r="E142" s="4">
-        <v>18056</v>
+        <v>18150</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>28410</v>
+        <v>28625</v>
       </c>
       <c r="C143" s="4">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="D143" s="4">
-        <v>7849</v>
+        <v>7877</v>
       </c>
       <c r="E143" s="4">
-        <v>37029</v>
+        <v>37280</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>18295</v>
+        <v>18357</v>
       </c>
       <c r="C144" s="4">
-        <v>1271</v>
+        <v>1300</v>
       </c>
       <c r="D144" s="4">
-        <v>12593</v>
+        <v>12776</v>
       </c>
       <c r="E144" s="4">
-        <v>32159</v>
+        <v>32433</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>12593</v>
+        <v>12743</v>
       </c>
       <c r="C145" s="4">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D145" s="4">
-        <v>6207</v>
+        <v>6229</v>
       </c>
       <c r="E145" s="4">
-        <v>19240</v>
+        <v>19427</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>16140</v>
+        <v>16240</v>
       </c>
       <c r="C146" s="4">
         <v>836</v>
       </c>
       <c r="D146" s="4">
-        <v>6799</v>
+        <v>6879</v>
       </c>
       <c r="E146" s="4">
-        <v>23775</v>
+        <v>23955</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>89270</v>
+        <v>89682</v>
       </c>
       <c r="C147" s="4">
-        <v>4699</v>
+        <v>4701</v>
       </c>
       <c r="D147" s="4">
-        <v>23308</v>
+        <v>23596</v>
       </c>
       <c r="E147" s="4">
-        <v>117277</v>
+        <v>117979</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>38807</v>
+        <v>38872</v>
       </c>
       <c r="C148" s="4">
-        <v>772</v>
+        <v>779</v>
       </c>
       <c r="D148" s="4">
-        <v>33829</v>
+        <v>34323</v>
       </c>
       <c r="E148" s="4">
-        <v>73408</v>
+        <v>73974</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3570,16 +3570,16 @@
         <v>152</v>
       </c>
       <c r="B149" s="4">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C149" s="4">
         <v>296</v>
       </c>
       <c r="D149" s="4">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="E149" s="4">
-        <v>1540</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="150" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>9202</v>
+        <v>9229</v>
       </c>
       <c r="C150" s="4">
         <v>1320</v>
       </c>
       <c r="D150" s="4">
-        <v>6239</v>
+        <v>6263</v>
       </c>
       <c r="E150" s="4">
-        <v>16761</v>
+        <v>16812</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>18415</v>
+        <v>18482</v>
       </c>
       <c r="C151" s="4">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="D151" s="4">
-        <v>4576</v>
+        <v>4609</v>
       </c>
       <c r="E151" s="4">
-        <v>23600</v>
+        <v>23713</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3621,16 +3621,16 @@
         <v>155</v>
       </c>
       <c r="B152" s="4">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="C152" s="4">
         <v>5</v>
       </c>
       <c r="D152" s="4">
-        <v>4854</v>
+        <v>5307</v>
       </c>
       <c r="E152" s="4">
-        <v>5005</v>
+        <v>5471</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>325288</v>
+        <v>327603</v>
       </c>
       <c r="C153" s="4">
-        <v>11689</v>
+        <v>11788</v>
       </c>
       <c r="D153" s="4">
-        <v>163167</v>
+        <v>164452</v>
       </c>
       <c r="E153" s="4">
-        <v>500144</v>
+        <v>503843</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>4157</v>
+        <v>4178</v>
       </c>
       <c r="C154" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D154" s="4">
-        <v>4060</v>
+        <v>4070</v>
       </c>
       <c r="E154" s="4">
-        <v>8391</v>
+        <v>8424</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>19380</v>
+        <v>19442</v>
       </c>
       <c r="C155" s="4">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D155" s="4">
-        <v>5774</v>
+        <v>5814</v>
       </c>
       <c r="E155" s="4">
-        <v>25563</v>
+        <v>25666</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>3984</v>
+        <v>3997</v>
       </c>
       <c r="C156" s="4">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D156" s="4">
-        <v>3651</v>
+        <v>3664</v>
       </c>
       <c r="E156" s="4">
-        <v>8500</v>
+        <v>8527</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1816</v>
+        <v>1822</v>
       </c>
       <c r="C157" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D157" s="4">
-        <v>1364</v>
+        <v>1368</v>
       </c>
       <c r="E157" s="4">
-        <v>3434</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>2490</v>
+        <v>2498</v>
       </c>
       <c r="C158" s="4">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D158" s="4">
-        <v>1764</v>
+        <v>1770</v>
       </c>
       <c r="E158" s="4">
-        <v>4365</v>
+        <v>4384</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>47677</v>
+        <v>47874</v>
       </c>
       <c r="C159" s="4">
-        <v>1957</v>
+        <v>1969</v>
       </c>
       <c r="D159" s="4">
-        <v>7521</v>
+        <v>7554</v>
       </c>
       <c r="E159" s="4">
-        <v>57155</v>
+        <v>57397</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>85216</v>
+        <v>85641</v>
       </c>
       <c r="C160" s="4">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D160" s="4">
-        <v>22862</v>
+        <v>24986</v>
       </c>
       <c r="E160" s="4">
-        <v>108594</v>
+        <v>111145</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>3547</v>
+        <v>3575</v>
       </c>
       <c r="C161" s="4">
         <v>93</v>
       </c>
       <c r="D161" s="4">
-        <v>3885</v>
+        <v>3903</v>
       </c>
       <c r="E161" s="4">
-        <v>7525</v>
+        <v>7571</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>407341</v>
+        <v>408673</v>
       </c>
       <c r="C162" s="4">
-        <v>12832</v>
+        <v>12982</v>
       </c>
       <c r="D162" s="4">
-        <v>143622</v>
+        <v>144898</v>
       </c>
       <c r="E162" s="4">
-        <v>563795</v>
+        <v>566553</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3808,16 +3808,16 @@
         <v>166</v>
       </c>
       <c r="B163" s="4">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="C163" s="4">
         <v>63</v>
       </c>
       <c r="D163" s="4">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E163" s="4">
-        <v>787</v>
+        <v>792</v>
       </c>
     </row>
     <row r="164" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>48931</v>
+        <v>49125</v>
       </c>
       <c r="C164" s="4">
-        <v>1666</v>
+        <v>1676</v>
       </c>
       <c r="D164" s="4">
-        <v>14365</v>
+        <v>14451</v>
       </c>
       <c r="E164" s="4">
-        <v>64962</v>
+        <v>65252</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>2405</v>
+        <v>2408</v>
       </c>
       <c r="C165" s="4">
         <v>28</v>
       </c>
       <c r="D165" s="4">
-        <v>1963</v>
+        <v>1976</v>
       </c>
       <c r="E165" s="4">
-        <v>4396</v>
+        <v>4412</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>79743</v>
+        <v>80240</v>
       </c>
       <c r="C166" s="4">
-        <v>10847</v>
+        <v>10924</v>
       </c>
       <c r="D166" s="4">
-        <v>82207</v>
+        <v>82631</v>
       </c>
       <c r="E166" s="4">
-        <v>172797</v>
+        <v>173795</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>25010</v>
+        <v>25104</v>
       </c>
       <c r="C167" s="4">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="D167" s="4">
-        <v>12777</v>
+        <v>12846</v>
       </c>
       <c r="E167" s="4">
-        <v>39068</v>
+        <v>39245</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>8106</v>
+        <v>8227</v>
       </c>
       <c r="C168" s="4">
         <v>131</v>
       </c>
       <c r="D168" s="4">
-        <v>2703</v>
+        <v>2711</v>
       </c>
       <c r="E168" s="4">
-        <v>10940</v>
+        <v>11069</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,16 +3910,16 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>8793</v>
+        <v>8809</v>
       </c>
       <c r="C169" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D169" s="4">
-        <v>6483</v>
+        <v>6604</v>
       </c>
       <c r="E169" s="4">
-        <v>15358</v>
+        <v>15497</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>17822</v>
+        <v>17948</v>
       </c>
       <c r="C170" s="4">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="D170" s="4">
-        <v>9264</v>
+        <v>9294</v>
       </c>
       <c r="E170" s="4">
-        <v>28354</v>
+        <v>28516</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>668789</v>
+        <v>675052</v>
       </c>
       <c r="C171" s="4">
-        <v>47255</v>
+        <v>47468</v>
       </c>
       <c r="D171" s="4">
-        <v>142156</v>
+        <v>143714</v>
       </c>
       <c r="E171" s="4">
-        <v>858200</v>
+        <v>866234</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>10706</v>
+        <v>10730</v>
       </c>
       <c r="C172" s="4">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="D172" s="4">
-        <v>6000</v>
+        <v>6140</v>
       </c>
       <c r="E172" s="4">
-        <v>17935</v>
+        <v>18101</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>9019</v>
+        <v>9053</v>
       </c>
       <c r="C173" s="4">
         <v>809</v>
       </c>
       <c r="D173" s="4">
-        <v>8187</v>
+        <v>8210</v>
       </c>
       <c r="E173" s="4">
-        <v>18015</v>
+        <v>18072</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -3995,16 +3995,16 @@
         <v>177</v>
       </c>
       <c r="B174" s="4">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C174" s="4">
         <v>17</v>
       </c>
       <c r="D174" s="4">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E174" s="4">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>61946</v>
+        <v>62201</v>
       </c>
       <c r="C175" s="4">
-        <v>4239</v>
+        <v>4275</v>
       </c>
       <c r="D175" s="4">
-        <v>21154</v>
+        <v>21266</v>
       </c>
       <c r="E175" s="4">
-        <v>87339</v>
+        <v>87742</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>40327</v>
+        <v>40467</v>
       </c>
       <c r="C176" s="4">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="D176" s="4">
-        <v>29673</v>
+        <v>30104</v>
       </c>
       <c r="E176" s="4">
-        <v>72012</v>
+        <v>72590</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>6885</v>
+        <v>6902</v>
       </c>
       <c r="C177" s="4">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="D177" s="4">
-        <v>5057</v>
+        <v>5119</v>
       </c>
       <c r="E177" s="4">
-        <v>12856</v>
+        <v>12941</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>10082</v>
+        <v>10088</v>
       </c>
       <c r="C178" s="4">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D178" s="4">
-        <v>7341</v>
+        <v>7405</v>
       </c>
       <c r="E178" s="4">
-        <v>17650</v>
+        <v>17724</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>341465</v>
+        <v>342702</v>
       </c>
       <c r="C179" s="4">
-        <v>52484</v>
+        <v>52576</v>
       </c>
       <c r="D179" s="4">
-        <v>161431</v>
+        <v>162895</v>
       </c>
       <c r="E179" s="4">
-        <v>555380</v>
+        <v>558173</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>1421</v>
+        <v>1452</v>
       </c>
       <c r="C180" s="4">
         <v>405</v>
       </c>
       <c r="D180" s="4">
-        <v>1247</v>
+        <v>1272</v>
       </c>
       <c r="E180" s="4">
-        <v>3073</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="C181" s="4">
         <v>398</v>
       </c>
       <c r="D181" s="4">
-        <v>1251</v>
+        <v>1306</v>
       </c>
       <c r="E181" s="4">
-        <v>2757</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>51790</v>
+        <v>52027</v>
       </c>
       <c r="C182" s="4">
-        <v>7027</v>
+        <v>7052</v>
       </c>
       <c r="D182" s="4">
-        <v>26896</v>
+        <v>27195</v>
       </c>
       <c r="E182" s="4">
-        <v>85713</v>
+        <v>86274</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>23679</v>
+        <v>23867</v>
       </c>
       <c r="C183" s="4">
         <v>1106</v>
       </c>
       <c r="D183" s="4">
-        <v>12719</v>
+        <v>12773</v>
       </c>
       <c r="E183" s="4">
-        <v>37504</v>
+        <v>37746</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>14435</v>
+        <v>14470</v>
       </c>
       <c r="C184" s="4">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="D184" s="4">
-        <v>8503</v>
+        <v>8562</v>
       </c>
       <c r="E184" s="4">
-        <v>24260</v>
+        <v>24357</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>129450</v>
+        <v>130542</v>
       </c>
       <c r="C185" s="4">
-        <v>7716</v>
+        <v>7756</v>
       </c>
       <c r="D185" s="4">
-        <v>38187</v>
+        <v>38917</v>
       </c>
       <c r="E185" s="4">
-        <v>175353</v>
+        <v>177215</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>3137</v>
+        <v>3155</v>
       </c>
       <c r="C186" s="4">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D186" s="4">
-        <v>3327</v>
+        <v>3389</v>
       </c>
       <c r="E186" s="4">
-        <v>6812</v>
+        <v>6895</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>14842</v>
+        <v>14853</v>
       </c>
       <c r="C187" s="4">
         <v>164</v>
       </c>
       <c r="D187" s="4">
-        <v>3921</v>
+        <v>3944</v>
       </c>
       <c r="E187" s="4">
-        <v>18927</v>
+        <v>18961</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>55002</v>
+        <v>55171</v>
       </c>
       <c r="C188" s="4">
-        <v>2880</v>
+        <v>2888</v>
       </c>
       <c r="D188" s="4">
-        <v>21117</v>
+        <v>21246</v>
       </c>
       <c r="E188" s="4">
-        <v>78999</v>
+        <v>79305</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>113431</v>
+        <v>114107</v>
       </c>
       <c r="C189" s="4">
-        <v>9751</v>
+        <v>9809</v>
       </c>
       <c r="D189" s="4">
-        <v>38999</v>
+        <v>44290</v>
       </c>
       <c r="E189" s="4">
-        <v>162181</v>
+        <v>168206</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>7882</v>
+        <v>7893</v>
       </c>
       <c r="C190" s="4">
         <v>60</v>
       </c>
       <c r="D190" s="4">
-        <v>2375</v>
+        <v>2380</v>
       </c>
       <c r="E190" s="4">
-        <v>10317</v>
+        <v>10333</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>5564</v>
+        <v>5588</v>
       </c>
       <c r="C191" s="4">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="D191" s="4">
-        <v>3243</v>
+        <v>3273</v>
       </c>
       <c r="E191" s="4">
-        <v>9292</v>
+        <v>9351</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>82544</v>
+        <v>83199</v>
       </c>
       <c r="C192" s="4">
-        <v>19922</v>
+        <v>20048</v>
       </c>
       <c r="D192" s="4">
-        <v>35268</v>
+        <v>40506</v>
       </c>
       <c r="E192" s="4">
-        <v>137734</v>
+        <v>143753</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4318,16 +4318,16 @@
         <v>196</v>
       </c>
       <c r="B193" s="4">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="C193" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D193" s="4">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="E193" s="4">
-        <v>2162</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>2630</v>
+        <v>2646</v>
       </c>
       <c r="C194" s="4">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D194" s="4">
-        <v>1638</v>
+        <v>1650</v>
       </c>
       <c r="E194" s="4">
-        <v>4387</v>
+        <v>4423</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,16 +4352,16 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>8255</v>
+        <v>8283</v>
       </c>
       <c r="C195" s="4">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D195" s="4">
-        <v>8201</v>
+        <v>8266</v>
       </c>
       <c r="E195" s="4">
-        <v>17193</v>
+        <v>17287</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>12363</v>
+        <v>12383</v>
       </c>
       <c r="C196" s="4">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D196" s="4">
-        <v>93473</v>
+        <v>93828</v>
       </c>
       <c r="E196" s="4">
-        <v>106337</v>
+        <v>106716</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>5640</v>
+        <v>5672</v>
       </c>
       <c r="C197" s="4">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="D197" s="4">
-        <v>7635</v>
+        <v>7655</v>
       </c>
       <c r="E197" s="4">
-        <v>13781</v>
+        <v>13836</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4403,16 +4403,16 @@
         <v>201</v>
       </c>
       <c r="B198" s="4">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C198" s="4">
         <v>112</v>
       </c>
       <c r="D198" s="4">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E198" s="4">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="199" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>18584</v>
+        <v>18662</v>
       </c>
       <c r="C199" s="4">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D199" s="4">
-        <v>12927</v>
+        <v>13024</v>
       </c>
       <c r="E199" s="4">
-        <v>32060</v>
+        <v>32239</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>109995</v>
+        <v>110606</v>
       </c>
       <c r="C200" s="4">
-        <v>7830</v>
+        <v>7925</v>
       </c>
       <c r="D200" s="4">
-        <v>19518</v>
+        <v>19764</v>
       </c>
       <c r="E200" s="4">
-        <v>137343</v>
+        <v>138295</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>7946</v>
+        <v>7983</v>
       </c>
       <c r="C201" s="4">
         <v>239</v>
       </c>
       <c r="D201" s="4">
-        <v>7253</v>
+        <v>7302</v>
       </c>
       <c r="E201" s="4">
-        <v>15438</v>
+        <v>15524</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>35118</v>
+        <v>35189</v>
       </c>
       <c r="C202" s="4">
-        <v>2457</v>
+        <v>2466</v>
       </c>
       <c r="D202" s="4">
-        <v>9482</v>
+        <v>9721</v>
       </c>
       <c r="E202" s="4">
-        <v>47057</v>
+        <v>47376</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>10565</v>
+        <v>10592</v>
       </c>
       <c r="C203" s="4">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D203" s="4">
-        <v>4925</v>
+        <v>4945</v>
       </c>
       <c r="E203" s="4">
-        <v>16230</v>
+        <v>16279</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>9697</v>
+        <v>9759</v>
       </c>
       <c r="C204" s="4">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D204" s="4">
-        <v>8441</v>
+        <v>8463</v>
       </c>
       <c r="E204" s="4">
-        <v>18428</v>
+        <v>18513</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>30432</v>
+        <v>30579</v>
       </c>
       <c r="C205" s="4">
-        <v>2465</v>
+        <v>2471</v>
       </c>
       <c r="D205" s="4">
-        <v>10121</v>
+        <v>10200</v>
       </c>
       <c r="E205" s="4">
-        <v>43018</v>
+        <v>43250</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>52355</v>
+        <v>52541</v>
       </c>
       <c r="C206" s="4">
-        <v>9846</v>
+        <v>9870</v>
       </c>
       <c r="D206" s="4">
-        <v>42206</v>
+        <v>42464</v>
       </c>
       <c r="E206" s="4">
-        <v>104407</v>
+        <v>104875</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>5421</v>
+        <v>5474</v>
       </c>
       <c r="C207" s="4">
         <v>131</v>
       </c>
       <c r="D207" s="4">
-        <v>3961</v>
+        <v>3982</v>
       </c>
       <c r="E207" s="4">
-        <v>9513</v>
+        <v>9587</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>1063</v>
+        <v>1067</v>
       </c>
       <c r="C208" s="4">
         <v>25</v>
       </c>
       <c r="D208" s="4">
-        <v>880</v>
+        <v>891</v>
       </c>
       <c r="E208" s="4">
-        <v>1968</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>27677</v>
+        <v>27849</v>
       </c>
       <c r="C209" s="4">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D209" s="4">
-        <v>3722</v>
+        <v>3863</v>
       </c>
       <c r="E209" s="4">
-        <v>31728</v>
+        <v>32043</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="C210" s="4">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D210" s="4">
-        <v>1343</v>
+        <v>1350</v>
       </c>
       <c r="E210" s="4">
-        <v>2522</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>20528</v>
+        <v>20740</v>
       </c>
       <c r="C211" s="4">
-        <v>1419</v>
+        <v>1428</v>
       </c>
       <c r="D211" s="4">
-        <v>9077</v>
+        <v>9180</v>
       </c>
       <c r="E211" s="4">
-        <v>31024</v>
+        <v>31348</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C212" s="4">
         <v>174</v>
       </c>
       <c r="D212" s="4">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="E212" s="4">
-        <v>695</v>
+        <v>704</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>282689</v>
+        <v>284803</v>
       </c>
       <c r="C213" s="4">
-        <v>14260</v>
+        <v>14461</v>
       </c>
       <c r="D213" s="4">
-        <v>91556</v>
+        <v>92415</v>
       </c>
       <c r="E213" s="4">
-        <v>388505</v>
+        <v>391679</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>8154</v>
+        <v>8259</v>
       </c>
       <c r="C214" s="4">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D214" s="4">
-        <v>7969</v>
+        <v>8037</v>
       </c>
       <c r="E214" s="4">
-        <v>16562</v>
+        <v>16737</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>76477</v>
+        <v>76791</v>
       </c>
       <c r="C215" s="4">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="D215" s="4">
-        <v>36162</v>
+        <v>36276</v>
       </c>
       <c r="E215" s="4">
-        <v>113509</v>
+        <v>113939</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>5937</v>
+        <v>5951</v>
       </c>
       <c r="C216" s="4">
         <v>166</v>
       </c>
       <c r="D216" s="4">
-        <v>6925</v>
+        <v>7016</v>
       </c>
       <c r="E216" s="4">
-        <v>13028</v>
+        <v>13133</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,16 +4726,16 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C217" s="4">
         <v>23</v>
       </c>
       <c r="D217" s="4">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="E217" s="4">
-        <v>1658</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C218" s="4">
         <v>9</v>
       </c>
       <c r="D218" s="4">
-        <v>1311</v>
+        <v>1327</v>
       </c>
       <c r="E218" s="4">
-        <v>1503</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1493</v>
+        <v>1495</v>
       </c>
       <c r="C219" s="4">
         <v>47</v>
       </c>
       <c r="D219" s="4">
-        <v>1259</v>
+        <v>1263</v>
       </c>
       <c r="E219" s="4">
-        <v>2799</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,16 +4777,16 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>8322</v>
+        <v>8382</v>
       </c>
       <c r="C220" s="4">
         <v>444</v>
       </c>
       <c r="D220" s="4">
-        <v>2216</v>
+        <v>2292</v>
       </c>
       <c r="E220" s="4">
-        <v>10982</v>
+        <v>11118</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>2662953</v>
+        <v>2681990</v>
       </c>
       <c r="C221" s="4">
-        <v>114968</v>
+        <v>115506</v>
       </c>
       <c r="D221" s="4">
-        <v>565363</v>
+        <v>573281</v>
       </c>
       <c r="E221" s="4">
-        <v>3343284</v>
+        <v>3370777</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>115224</v>
+        <v>115532</v>
       </c>
       <c r="C222" s="4">
-        <v>4473</v>
+        <v>4513</v>
       </c>
       <c r="D222" s="4">
-        <v>137685</v>
+        <v>138414</v>
       </c>
       <c r="E222" s="4">
-        <v>257382</v>
+        <v>258459</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4831,13 +4831,13 @@
         <v>480</v>
       </c>
       <c r="C223" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D223" s="4">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E223" s="4">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>5884</v>
+        <v>5899</v>
       </c>
       <c r="C224" s="4">
         <v>138</v>
       </c>
       <c r="D224" s="4">
-        <v>3916</v>
+        <v>3929</v>
       </c>
       <c r="E224" s="4">
-        <v>9938</v>
+        <v>9966</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>56</v>
       </c>
       <c r="D225" s="4">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="E225" s="4">
-        <v>1288</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>32547</v>
+        <v>32659</v>
       </c>
       <c r="C226" s="4">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D226" s="4">
-        <v>9006</v>
+        <v>9029</v>
       </c>
       <c r="E226" s="4">
-        <v>42994</v>
+        <v>43130</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>97961</v>
+        <v>98235</v>
       </c>
       <c r="C227" s="4">
-        <v>3098</v>
+        <v>3126</v>
       </c>
       <c r="D227" s="4">
-        <v>115374</v>
+        <v>116591</v>
       </c>
       <c r="E227" s="4">
-        <v>216433</v>
+        <v>217952</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>1802577</v>
+        <v>1823799</v>
       </c>
       <c r="C228" s="4">
-        <v>78005</v>
+        <v>79865</v>
       </c>
       <c r="D228" s="4">
-        <v>421728</v>
+        <v>427111</v>
       </c>
       <c r="E228" s="4">
-        <v>2302310</v>
+        <v>2330775</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>17894</v>
+        <v>17941</v>
       </c>
       <c r="C229" s="4">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D229" s="4">
-        <v>8116</v>
+        <v>8162</v>
       </c>
       <c r="E229" s="4">
-        <v>26613</v>
+        <v>26709</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>16199</v>
+        <v>16241</v>
       </c>
       <c r="C230" s="4">
         <v>1103</v>
       </c>
       <c r="D230" s="4">
-        <v>10496</v>
+        <v>10586</v>
       </c>
       <c r="E230" s="4">
-        <v>27798</v>
+        <v>27930</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>16030</v>
+        <v>16091</v>
       </c>
       <c r="C231" s="4">
-        <v>2479</v>
+        <v>2505</v>
       </c>
       <c r="D231" s="4">
-        <v>9387</v>
+        <v>9449</v>
       </c>
       <c r="E231" s="4">
-        <v>27896</v>
+        <v>28045</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4981,16 +4981,16 @@
         <v>235</v>
       </c>
       <c r="B232" s="4">
-        <v>1197</v>
+        <v>1203</v>
       </c>
       <c r="C232" s="4">
         <v>101</v>
       </c>
       <c r="D232" s="4">
-        <v>3973</v>
+        <v>4015</v>
       </c>
       <c r="E232" s="4">
-        <v>5271</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>39273</v>
+        <v>39486</v>
       </c>
       <c r="C233" s="4">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="D233" s="4">
-        <v>4708</v>
+        <v>4747</v>
       </c>
       <c r="E233" s="4">
-        <v>44558</v>
+        <v>44820</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>63193</v>
+        <v>63513</v>
       </c>
       <c r="C234" s="4">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="D234" s="4">
-        <v>33125</v>
+        <v>33236</v>
       </c>
       <c r="E234" s="4">
-        <v>97670</v>
+        <v>98102</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>32694</v>
+        <v>32846</v>
       </c>
       <c r="C235" s="4">
-        <v>2375</v>
+        <v>2389</v>
       </c>
       <c r="D235" s="4">
-        <v>21100</v>
+        <v>21246</v>
       </c>
       <c r="E235" s="4">
-        <v>56169</v>
+        <v>56481</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>71491</v>
+        <v>71685</v>
       </c>
       <c r="C236" s="4">
-        <v>4934</v>
+        <v>5055</v>
       </c>
       <c r="D236" s="4">
-        <v>31381</v>
+        <v>31630</v>
       </c>
       <c r="E236" s="4">
-        <v>107806</v>
+        <v>108370</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>167341</v>
+        <v>168129</v>
       </c>
       <c r="C237" s="4">
-        <v>3266</v>
+        <v>3272</v>
       </c>
       <c r="D237" s="4">
-        <v>46252</v>
+        <v>46735</v>
       </c>
       <c r="E237" s="4">
-        <v>216859</v>
+        <v>218136</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>59499</v>
+        <v>59927</v>
       </c>
       <c r="C238" s="4">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="D238" s="4">
-        <v>11349</v>
+        <v>11434</v>
       </c>
       <c r="E238" s="4">
-        <v>73188</v>
+        <v>73707</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>5665</v>
+        <v>5673</v>
       </c>
       <c r="C239" s="4">
         <v>234</v>
       </c>
       <c r="D239" s="4">
-        <v>2139</v>
+        <v>2167</v>
       </c>
       <c r="E239" s="4">
-        <v>8038</v>
+        <v>8074</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>54339</v>
+        <v>54701</v>
       </c>
       <c r="C240" s="4">
-        <v>2035</v>
+        <v>2054</v>
       </c>
       <c r="D240" s="4">
-        <v>26796</v>
+        <v>26843</v>
       </c>
       <c r="E240" s="4">
-        <v>83170</v>
+        <v>83598</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>512878</v>
+        <v>514880</v>
       </c>
       <c r="C241" s="4">
-        <v>7091</v>
+        <v>7097</v>
       </c>
       <c r="D241" s="4">
-        <v>139458</v>
+        <v>141326</v>
       </c>
       <c r="E241" s="4">
-        <v>659427</v>
+        <v>663303</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>47930</v>
+        <v>48162</v>
       </c>
       <c r="C242" s="4">
-        <v>2556</v>
+        <v>2570</v>
       </c>
       <c r="D242" s="4">
-        <v>10468</v>
+        <v>10548</v>
       </c>
       <c r="E242" s="4">
-        <v>60954</v>
+        <v>61280</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,16 +5168,16 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>2421</v>
+        <v>2437</v>
       </c>
       <c r="C243" s="4">
         <v>505</v>
       </c>
       <c r="D243" s="4">
-        <v>4521</v>
+        <v>4551</v>
       </c>
       <c r="E243" s="4">
-        <v>7447</v>
+        <v>7493</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>150549</v>
+        <v>151063</v>
       </c>
       <c r="C244" s="4">
-        <v>11060</v>
+        <v>11211</v>
       </c>
       <c r="D244" s="4">
-        <v>68440</v>
+        <v>69184</v>
       </c>
       <c r="E244" s="4">
-        <v>230049</v>
+        <v>231458</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>17701</v>
+        <v>17786</v>
       </c>
       <c r="C245" s="4">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="D245" s="4">
-        <v>25471</v>
+        <v>25981</v>
       </c>
       <c r="E245" s="4">
-        <v>43973</v>
+        <v>44572</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>46282</v>
+        <v>46464</v>
       </c>
       <c r="C246" s="4">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D246" s="4">
-        <v>8377</v>
+        <v>8443</v>
       </c>
       <c r="E246" s="4">
-        <v>54893</v>
+        <v>55143</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>779282</v>
+        <v>787753</v>
       </c>
       <c r="C247" s="4">
-        <v>33865</v>
+        <v>34831</v>
       </c>
       <c r="D247" s="4">
-        <v>196131</v>
+        <v>198511</v>
       </c>
       <c r="E247" s="4">
-        <v>1009278</v>
+        <v>1021095</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>52766</v>
+        <v>52985</v>
       </c>
       <c r="C248" s="4">
-        <v>1549</v>
+        <v>1558</v>
       </c>
       <c r="D248" s="4">
-        <v>20159</v>
+        <v>20239</v>
       </c>
       <c r="E248" s="4">
-        <v>74474</v>
+        <v>74782</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>1715</v>
+        <v>1724</v>
       </c>
       <c r="C249" s="4">
         <v>73</v>
       </c>
       <c r="D249" s="4">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="E249" s="4">
-        <v>2485</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>72087</v>
+        <v>72527</v>
       </c>
       <c r="C250" s="4">
-        <v>3969</v>
+        <v>3987</v>
       </c>
       <c r="D250" s="4">
-        <v>15751</v>
+        <v>15849</v>
       </c>
       <c r="E250" s="4">
-        <v>91807</v>
+        <v>92363</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>28619</v>
+        <v>28815</v>
       </c>
       <c r="C251" s="4">
-        <v>2354</v>
+        <v>2357</v>
       </c>
       <c r="D251" s="4">
-        <v>16766</v>
+        <v>17107</v>
       </c>
       <c r="E251" s="4">
-        <v>47739</v>
+        <v>48279</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>2896</v>
+        <v>2908</v>
       </c>
       <c r="C252" s="4">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D252" s="4">
-        <v>1917</v>
+        <v>1930</v>
       </c>
       <c r="E252" s="4">
-        <v>4984</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>10660</v>
+        <v>10698</v>
       </c>
       <c r="C253" s="4">
         <v>693</v>
       </c>
       <c r="D253" s="4">
-        <v>5622</v>
+        <v>5674</v>
       </c>
       <c r="E253" s="4">
-        <v>16975</v>
+        <v>17065</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>18372</v>
+        <v>18400</v>
       </c>
       <c r="C254" s="4">
         <v>158</v>
       </c>
       <c r="D254" s="4">
-        <v>17643</v>
+        <v>17760</v>
       </c>
       <c r="E254" s="4">
-        <v>36173</v>
+        <v>36318</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>12877</v>
+        <v>12931</v>
       </c>
       <c r="C255" s="4">
         <v>271</v>
       </c>
       <c r="D255" s="4">
-        <v>2646</v>
+        <v>2674</v>
       </c>
       <c r="E255" s="4">
-        <v>15794</v>
+        <v>15876</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>259028</v>
+        <v>266607</v>
       </c>
       <c r="C256" s="4">
-        <v>14397</v>
+        <v>14401</v>
       </c>
       <c r="D256" s="4">
-        <v>16159</v>
+        <v>16271</v>
       </c>
       <c r="E256" s="4">
-        <v>289584</v>
+        <v>297279</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>38426894</v>
+        <v>38723552</v>
       </c>
       <c r="C257" s="4">
-        <v>1700485</v>
+        <v>1711872</v>
       </c>
       <c r="D257" s="4">
-        <v>9756863</v>
+        <v>9876963</v>
       </c>
       <c r="E257" s="4">
-        <v>49884242</v>
+        <v>50312387</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
